--- a/projeto-jf-investimentos-v5.xlsx
+++ b/projeto-jf-investimentos-v5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Juliao\Dropbox\DIO\2025-02-06 - Santander - Excel com Inteligência Artificial - 2º Semestre\Projetos\projeto-dio-controle-investimentos-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C34135-1505-49DC-9551-0C7065E1EAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4836AF-F79C-4E56-9938-D75150D35D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,21 +215,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -485,16 +470,13 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="8" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -518,32 +500,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -557,17 +518,51 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -578,37 +573,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="4" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Entrada" xfId="1" builtinId="20"/>
@@ -1952,30 +1931,30 @@
     <row r="7" spans="2:8" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:8" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="F9" s="19" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="F9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="35"/>
-      <c r="D10" s="3">
+      <c r="D10" s="46">
         <v>5000</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="48" t="s">
+      <c r="G10" s="43"/>
+      <c r="H10" s="26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1984,189 +1963,189 @@
         <v>5</v>
       </c>
       <c r="C11" s="35"/>
-      <c r="D11" s="4">
+      <c r="D11" s="48">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="26">
+      <c r="G11" s="29"/>
+      <c r="H11" s="16">
         <v>500</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="5">
+      <c r="C12" s="45"/>
+      <c r="D12" s="3">
         <f>salario*30%</f>
         <v>1500</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="F14" s="30" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="F14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="21">
         <f>VLOOKUP($H$10&amp;"-"&amp;$F14,Perfis!A:D,4,FALSE)</f>
         <v>0.3</v>
       </c>
-      <c r="H14" s="32">
-        <f>$H$11*G14</f>
+      <c r="H14" s="22">
+        <f t="shared" ref="H14:H19" si="0">$H$11*G14</f>
         <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="39"/>
-      <c r="F15" s="30" t="s">
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="F15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="21">
         <f>VLOOKUP($H$10&amp;"-"&amp;$F15,Perfis!A:D,4,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="H15" s="32">
-        <f>$H$11*G15</f>
+      <c r="H15" s="22">
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="3">
+      <c r="C16" s="35"/>
+      <c r="D16" s="46">
         <v>500</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="21">
         <f>VLOOKUP($H$10&amp;"-"&amp;$F16,Perfis!A:D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="H16" s="32">
-        <f>$H$11*G16</f>
+      <c r="H16" s="22">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="6">
+      <c r="C17" s="35"/>
+      <c r="D17" s="47">
         <v>5</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="21">
         <f>VLOOKUP($H$10&amp;"-"&amp;$F17,Perfis!A:D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="H17" s="32">
-        <f>$H$11*G17</f>
+      <c r="H17" s="22">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="4">
+      <c r="C18" s="35"/>
+      <c r="D18" s="48">
         <v>1.0789999999999999E-2</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="21">
         <f>VLOOKUP($H$10&amp;"-"&amp;$F18,Perfis!A:D,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="32">
-        <f>$H$11*G18</f>
+      <c r="H18" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="7">
+      <c r="C19" s="35"/>
+      <c r="D19" s="4">
         <f>FV(taxa_mensal,qtd_anos*12,-aporte)</f>
         <v>41888.456999243819</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="21">
         <f>VLOOKUP($H$10&amp;"-"&amp;$F19,Perfis!A:D,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H19" s="32">
-        <f>$H$11*G19</f>
+      <c r="H19" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="7">
+      <c r="C20" s="35"/>
+      <c r="D20" s="4">
         <f>patrimonio*rendimento_carteira</f>
         <v>251.33074199546292</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="30">
         <f>SUM(H14:H19)</f>
         <v>500</v>
       </c>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="25" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2174,14 +2153,14 @@
       <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <f>FV(taxa_mensal,A24*12,-aporte)</f>
         <v>13613.813648822608</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="7">
         <f>C24*rendimento_carteira</f>
         <v>81.682881892935654</v>
       </c>
@@ -2190,14 +2169,14 @@
       <c r="A25" s="1">
         <v>5</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <f>FV(taxa_mensal,A25*12,-aporte)</f>
         <v>41888.456999243819</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="7">
         <f>C25*rendimento_carteira</f>
         <v>251.33074199546292</v>
       </c>
@@ -2206,14 +2185,14 @@
       <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <f>FV(taxa_mensal,A26*12,-aporte)</f>
         <v>121642.1062650861</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="7">
         <f>C26*rendimento_carteira</f>
         <v>729.85263759051657</v>
       </c>
@@ -2222,14 +2201,14 @@
       <c r="A27" s="1">
         <v>20</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <f>FV(taxa_mensal,A27*12,-aporte)</f>
         <v>562599.20004854025</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="7">
         <f>C27*rendimento_carteira</f>
         <v>3375.5952002912418</v>
       </c>
@@ -2238,42 +2217,46 @@
       <c r="A28" s="1">
         <v>30</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <f>FV(taxa_mensal,A28*12,-aporte)</f>
         <v>2161084.8275023573</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="7">
         <f>C28*rendimento_carteira</f>
         <v>12966.508965014144</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="15"/>
     </row>
     <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="15"/>
     </row>
     <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="A34" s="15"/>
     </row>
     <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
+      <c r="A35" s="15"/>
     </row>
     <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="15"/>
     </row>
     <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="15"/>
     </row>
     <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="A38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="B9:D9"/>
@@ -2285,10 +2268,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B14:D15"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10" xr:uid="{24F4A64E-CE2B-48FD-B1F3-69167AE64E02}">
@@ -2309,22 +2288,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="9" style="11" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2333,13 +2312,13 @@
         <f>B3&amp;"-"&amp;C3</f>
         <v>Conservador-PAPEL</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="9">
         <v>0.3</v>
       </c>
     </row>
@@ -2348,13 +2327,13 @@
         <f t="shared" ref="A4:A20" si="0">B4&amp;"-"&amp;C4</f>
         <v>Conservador-TIJOLO</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="9">
         <v>0.5</v>
       </c>
     </row>
@@ -2363,13 +2342,13 @@
         <f t="shared" si="0"/>
         <v>Conservador-HÍBRIDOS</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>0.1</v>
       </c>
     </row>
@@ -2378,13 +2357,13 @@
         <f t="shared" si="0"/>
         <v>Conservador-FOFs</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>0.1</v>
       </c>
     </row>
@@ -2393,28 +2372,28 @@
         <f t="shared" si="0"/>
         <v>Conservador-DESENVOLVIMENTO</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="str">
+      <c r="A8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-HOTELARIAS</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2423,13 +2402,13 @@
         <f t="shared" si="0"/>
         <v>Moderado-PAPEL</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>0.32</v>
       </c>
     </row>
@@ -2438,13 +2417,13 @@
         <f t="shared" si="0"/>
         <v>Moderado-TIJOLO</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>0.35</v>
       </c>
     </row>
@@ -2453,13 +2432,13 @@
         <f t="shared" si="0"/>
         <v>Moderado-HÍBRIDOS</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="9">
         <v>0.05</v>
       </c>
     </row>
@@ -2468,13 +2447,13 @@
         <f t="shared" si="0"/>
         <v>Moderado-FOFs</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="9">
         <v>0.1</v>
       </c>
     </row>
@@ -2483,28 +2462,28 @@
         <f t="shared" si="0"/>
         <v>Moderado-DESENVOLVIMENTO</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="9">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="str">
+      <c r="A14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-HOTELARIAS</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <v>0.1</v>
       </c>
     </row>
@@ -2513,13 +2492,13 @@
         <f t="shared" si="0"/>
         <v>Agressivo-PAPEL</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="9">
         <v>0.5</v>
       </c>
     </row>
@@ -2528,13 +2507,13 @@
         <f t="shared" si="0"/>
         <v>Agressivo-TIJOLO</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <v>0.1</v>
       </c>
     </row>
@@ -2543,13 +2522,13 @@
         <f t="shared" si="0"/>
         <v>Agressivo-HÍBRIDOS</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="9">
         <v>0.05</v>
       </c>
     </row>
@@ -2558,13 +2537,13 @@
         <f t="shared" si="0"/>
         <v>Agressivo-FOFs</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <v>0.05</v>
       </c>
     </row>
@@ -2573,13 +2552,13 @@
         <f t="shared" si="0"/>
         <v>Agressivo-DESENVOLVIMENTO</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="9">
         <v>0.2</v>
       </c>
     </row>
@@ -2588,13 +2567,13 @@
         <f t="shared" si="0"/>
         <v>Agressivo-HOTELARIAS</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="9">
         <v>0.1</v>
       </c>
     </row>
